--- a/数据整理/stocks/港股/01797-新东方在线.xlsx
+++ b/数据整理/stocks/港股/01797-新东方在线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>汇添富港股通专注成长混合</t>
   </si>
   <si>
+    <t>5.77</t>
+  </si>
+  <si>
     <t>86.36</t>
   </si>
   <si>
     <t>3.72</t>
+  </si>
+  <si>
+    <t>0.2146</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01797-新东方在线.xlsx
+++ b/数据整理/stocks/港股/01797-新东方在线.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005228</t>
-  </si>
-  <si>
-    <t>汇添富港股通专注成长混合</t>
-  </si>
-  <si>
-    <t>5.77</t>
-  </si>
-  <si>
-    <t>86.36</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>0.2146</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01797-新东方在线.xlsx
+++ b/数据整理/stocks/港股/01797-新东方在线.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01797-新东方在线.xlsx
+++ b/数据整理/stocks/港股/01797-新东方在线.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01797-新东方在线.xlsx
+++ b/数据整理/stocks/港股/01797-新东方在线.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富港股通专注成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2146</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -792,64 +766,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01797-新东方在线.xlsx
+++ b/数据整理/stocks/港股/01797-新东方在线.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -515,6 +532,3096 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2622</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8949</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5963</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5276</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004340</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康兴泰回报沪港深混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国富估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015752</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>017451</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国富估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -760,7 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
